--- a/MVCProject/wwwroot/data/Danh_Sach_Nhan_Vien.xlsx
+++ b/MVCProject/wwwroot/data/Danh_Sach_Nhan_Vien.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Mã Nhân Viên</t>
   </si>
@@ -53,6 +53,9 @@
     <t>Nhân Viên</t>
   </si>
   <si>
+    <t>Phòng Nhân Sự</t>
+  </si>
+  <si>
     <t>NV-0080</t>
   </si>
   <si>
@@ -74,6 +77,9 @@
     <t>0980000095</t>
   </si>
   <si>
+    <t>Phòng Hành Chính</t>
+  </si>
+  <si>
     <t>NV-0088</t>
   </si>
   <si>
@@ -83,6 +89,9 @@
     <t>0987868584</t>
   </si>
   <si>
+    <t>Phòng Makerting</t>
+  </si>
+  <si>
     <t>NV-0122</t>
   </si>
   <si>
@@ -92,63 +101,66 @@
     <t>0383703111</t>
   </si>
   <si>
+    <t>Thụy Hồng Thái Bình</t>
+  </si>
+  <si>
+    <t>NV-0130</t>
+  </si>
+  <si>
+    <t>Xê Thị Đê</t>
+  </si>
+  <si>
+    <t>0912398473</t>
+  </si>
+  <si>
+    <t>NV-0143</t>
+  </si>
+  <si>
+    <t>Dương Thúy Hằng</t>
+  </si>
+  <si>
+    <t>0371239874</t>
+  </si>
+  <si>
+    <t>Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>NV-0147</t>
+  </si>
+  <si>
+    <t>Chu Sương Nhi</t>
+  </si>
+  <si>
+    <t>0341238567</t>
+  </si>
+  <si>
+    <t>Nam Định</t>
+  </si>
+  <si>
+    <t>NV-0149</t>
+  </si>
+  <si>
+    <t>Vương Hải Long</t>
+  </si>
+  <si>
+    <t>0371274812</t>
+  </si>
+  <si>
+    <t>Thanh Hóa</t>
+  </si>
+  <si>
+    <t>NV-0164</t>
+  </si>
+  <si>
+    <t>Bê Văn Xê</t>
+  </si>
+  <si>
+    <t>0349817365</t>
+  </si>
+  <si>
     <t>Thái Bình</t>
   </si>
   <si>
-    <t>NV-0130</t>
-  </si>
-  <si>
-    <t>Xê Thị Đê</t>
-  </si>
-  <si>
-    <t>0912398473</t>
-  </si>
-  <si>
-    <t>NV-0143</t>
-  </si>
-  <si>
-    <t>Dương Thúy Hằng</t>
-  </si>
-  <si>
-    <t>0371239874</t>
-  </si>
-  <si>
-    <t>Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>NV-0147</t>
-  </si>
-  <si>
-    <t>Chu Sương Nhi</t>
-  </si>
-  <si>
-    <t>0341238567</t>
-  </si>
-  <si>
-    <t>Nam Định</t>
-  </si>
-  <si>
-    <t>NV-0149</t>
-  </si>
-  <si>
-    <t>Vương Hải Long</t>
-  </si>
-  <si>
-    <t>0371274812</t>
-  </si>
-  <si>
-    <t>Thanh Hóa</t>
-  </si>
-  <si>
-    <t>NV-0164</t>
-  </si>
-  <si>
-    <t>Bê Văn Xê</t>
-  </si>
-  <si>
-    <t>0349817365</t>
-  </si>
-  <si>
     <t>NV-0191</t>
   </si>
   <si>
@@ -161,6 +173,9 @@
     <t>501 Hà Huy Tập Thị Trấn Yên Viên Gia Lâm Hà Nội</t>
   </si>
   <si>
+    <t>Phòng It</t>
+  </si>
+  <si>
     <t>NV-0193</t>
   </si>
   <si>
@@ -192,6 +207,21 @@
   </si>
   <si>
     <t>Giám Đốc</t>
+  </si>
+  <si>
+    <t>NV-0199</t>
+  </si>
+  <si>
+    <t>Ngô Bá Thức</t>
+  </si>
+  <si>
+    <t>0912387612</t>
+  </si>
+  <si>
+    <t>Thạch Thất Hà Tây</t>
+  </si>
+  <si>
+    <t>Thực Tập Sinh</t>
   </si>
 </sst>
 </file>
@@ -287,7 +317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -300,7 +330,7 @@
     <col min="5" max="5" width="61.98026657104492" customWidth="1"/>
     <col min="6" max="6" width="19.746740341186523" customWidth="1"/>
     <col min="7" max="7" width="23.675312042236328" customWidth="1"/>
-    <col min="8" max="8" width="15.714933395385742" customWidth="1"/>
+    <col min="8" max="8" width="24.762086868286133" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -351,25 +381,25 @@
       <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="2">
-        <v>1</v>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4">
         <v>36215</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
@@ -377,22 +407,22 @@
       <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="2">
-        <v>1</v>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4">
         <v>36857</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
@@ -403,22 +433,22 @@
       <c r="G4" s="2">
         <v>4</v>
       </c>
-      <c r="H4" s="2">
-        <v>5</v>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4">
         <v>36685</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
@@ -429,25 +459,25 @@
       <c r="G5" s="2">
         <v>2</v>
       </c>
-      <c r="H5" s="2">
-        <v>6</v>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4">
         <v>35101</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
@@ -455,22 +485,22 @@
       <c r="G6" s="2">
         <v>3</v>
       </c>
-      <c r="H6" s="2">
-        <v>1</v>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4">
         <v>32722</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
@@ -481,25 +511,25 @@
       <c r="G7" s="2">
         <v>4</v>
       </c>
-      <c r="H7" s="2">
-        <v>1</v>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4">
         <v>36869</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
@@ -507,25 +537,25 @@
       <c r="G8" s="2">
         <v>3</v>
       </c>
-      <c r="H8" s="2">
-        <v>5</v>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C9" s="4">
         <v>33855</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
@@ -533,25 +563,25 @@
       <c r="G9" s="2">
         <v>3</v>
       </c>
-      <c r="H9" s="2">
-        <v>1</v>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4">
         <v>35862</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
@@ -559,25 +589,25 @@
       <c r="G10" s="2">
         <v>4</v>
       </c>
-      <c r="H10" s="2">
-        <v>1</v>
+      <c r="H10" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4">
         <v>36557</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>12</v>
@@ -585,25 +615,25 @@
       <c r="G11" s="2">
         <v>3</v>
       </c>
-      <c r="H11" s="2">
-        <v>1</v>
+      <c r="H11" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C12" s="4">
         <v>36705</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>12</v>
@@ -611,51 +641,51 @@
       <c r="G12" s="2">
         <v>2</v>
       </c>
-      <c r="H12" s="2">
-        <v>7</v>
+      <c r="H12" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C13" s="4">
         <v>36195</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G13" s="2">
         <v>3</v>
       </c>
-      <c r="H13" s="2">
-        <v>6</v>
+      <c r="H13" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C14" s="4">
         <v>36409</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>12</v>
@@ -663,34 +693,60 @@
       <c r="G14" s="2">
         <v>4</v>
       </c>
-      <c r="H14" s="2">
-        <v>5</v>
+      <c r="H14" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C15" s="4">
         <v>35834</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G15" s="2">
         <v>5</v>
       </c>
-      <c r="H15" s="2">
-        <v>1</v>
+      <c r="H15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="30" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="4">
+        <v>36349</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/MVCProject/wwwroot/data/Danh_Sach_Nhan_Vien.xlsx
+++ b/MVCProject/wwwroot/data/Danh_Sach_Nhan_Vien.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Mã Nhân Viên</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>0356123987</t>
+  </si>
+  <si>
+    <t>Quảng Ninh</t>
   </si>
   <si>
     <t>Giám Đốc</t>
@@ -317,7 +320,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -330,7 +333,8 @@
     <col min="5" max="5" width="61.98026657104492" customWidth="1"/>
     <col min="6" max="6" width="19.746740341186523" customWidth="1"/>
     <col min="7" max="7" width="23.675312042236328" customWidth="1"/>
-    <col min="8" max="8" width="24.762086868286133" customWidth="1"/>
+    <col min="8" max="8" hidden="1" width="16" customWidth="1"/>
+    <col min="9" max="9" width="24.762086868286133" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -355,7 +359,8 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -381,7 +386,10 @@
       <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -407,7 +415,10 @@
       <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -433,7 +444,10 @@
       <c r="G4" s="2">
         <v>4</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -459,7 +473,10 @@
       <c r="G5" s="2">
         <v>2</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="2">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -485,7 +502,10 @@
       <c r="G6" s="2">
         <v>3</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -511,7 +531,10 @@
       <c r="G7" s="2">
         <v>4</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -537,7 +560,10 @@
       <c r="G8" s="2">
         <v>3</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -563,7 +589,10 @@
       <c r="G9" s="2">
         <v>3</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -589,7 +618,10 @@
       <c r="G10" s="2">
         <v>4</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -615,7 +647,10 @@
       <c r="G11" s="2">
         <v>3</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -641,7 +676,10 @@
       <c r="G12" s="2">
         <v>2</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="2">
+        <v>7</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -667,7 +705,10 @@
       <c r="G13" s="2">
         <v>3</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="2">
+        <v>6</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -693,7 +734,10 @@
       <c r="G14" s="2">
         <v>4</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -711,41 +755,47 @@
         <v>63</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G15" s="2">
         <v>5</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="4">
         <v>36349</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="2">
+        <v>7</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>53</v>
       </c>
     </row>
